--- a/프로젝트관리.xlsx
+++ b/프로젝트관리.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12240" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="11790" windowHeight="8115" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="8" r:id="rId1"/>
@@ -15,12 +15,13 @@
     <sheet name="파일이름규칙" sheetId="10" r:id="rId6"/>
     <sheet name="작업상황" sheetId="11" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="303">
   <si>
     <t>이용자 권한과 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1243,6 +1244,14 @@
   </si>
   <si>
     <t>전반적인 테이블 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert brand 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajax를 이용해서 브랜드 중복 체크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1944,54 +1953,96 @@
     <xf numFmtId="0" fontId="15" fillId="26" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2004,9 +2055,6 @@
     <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2026,45 +2074,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2437,41 +2446,41 @@
     <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
@@ -2516,32 +2525,32 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="20"/>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="60" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="48"/>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="71" t="s">
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="68"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="22"/>
       <c r="E7" s="13">
         <v>10</v>
@@ -2641,7 +2650,7 @@
     <row r="11" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="65" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="10"/>
@@ -2662,7 +2671,7 @@
     <row r="12" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="61"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="10"/>
       <c r="E12" s="8"/>
       <c r="F12" s="6"/>
@@ -2700,7 +2709,7 @@
     <row r="14" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="57" t="s">
         <v>56</v>
       </c>
       <c r="D14" s="10"/>
@@ -2721,7 +2730,7 @@
     <row r="15" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="64"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="10"/>
       <c r="E15" s="8"/>
       <c r="F15" s="6"/>
@@ -2759,7 +2768,7 @@
     <row r="17" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="65" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="10"/>
@@ -2780,7 +2789,7 @@
     <row r="18" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="61"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="10"/>
       <c r="E18" s="6"/>
       <c r="F18" s="8"/>
@@ -2839,7 +2848,7 @@
     <row r="21" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="67" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="10"/>
@@ -2860,7 +2869,7 @@
     <row r="22" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="62"/>
+      <c r="C22" s="67"/>
       <c r="D22" s="10"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -2898,7 +2907,7 @@
     <row r="24" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="67" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="10"/>
@@ -2919,7 +2928,7 @@
     <row r="25" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="62"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="10"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -2957,7 +2966,7 @@
     <row r="27" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="67" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="10"/>
@@ -2978,7 +2987,7 @@
     <row r="28" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="62"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="10"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -3016,7 +3025,7 @@
     <row r="30" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="67" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="10"/>
@@ -3037,7 +3046,7 @@
     <row r="31" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="62"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="10"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -3075,7 +3084,7 @@
     <row r="33" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="67" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="10"/>
@@ -3096,7 +3105,7 @@
     <row r="34" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="62"/>
+      <c r="C34" s="67"/>
       <c r="D34" s="10"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -3134,7 +3143,7 @@
     <row r="36" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="62" t="s">
+      <c r="C36" s="67" t="s">
         <v>264</v>
       </c>
       <c r="D36" s="10"/>
@@ -3155,7 +3164,7 @@
     <row r="37" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="62"/>
+      <c r="C37" s="67"/>
       <c r="D37" s="10"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -3214,7 +3223,7 @@
     <row r="40" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="63" t="s">
+      <c r="C40" s="68" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="10"/>
@@ -3235,7 +3244,7 @@
     <row r="41" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="63"/>
+      <c r="C41" s="68"/>
       <c r="D41" s="10"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -3273,7 +3282,7 @@
     <row r="43" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="68" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="10"/>
@@ -3294,7 +3303,7 @@
     <row r="44" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="63"/>
+      <c r="C44" s="68"/>
       <c r="D44" s="10"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -3332,7 +3341,7 @@
     <row r="46" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="63" t="s">
+      <c r="C46" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="10"/>
@@ -3353,7 +3362,7 @@
     <row r="47" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="16"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="63"/>
+      <c r="C47" s="68"/>
       <c r="D47" s="10"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -3391,7 +3400,7 @@
     <row r="49" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="16"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="63" t="s">
+      <c r="C49" s="68" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="10"/>
@@ -3412,7 +3421,7 @@
     <row r="50" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="16"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="63"/>
+      <c r="C50" s="68"/>
       <c r="D50" s="10"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -3471,7 +3480,7 @@
     <row r="53" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="66" t="s">
         <v>32</v>
       </c>
       <c r="D53" s="10"/>
@@ -3492,7 +3501,7 @@
     <row r="54" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="58"/>
+      <c r="C54" s="66"/>
       <c r="D54" s="10"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -3530,7 +3539,7 @@
     <row r="56" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="16"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="58" t="s">
+      <c r="C56" s="66" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="10"/>
@@ -3551,7 +3560,7 @@
     <row r="57" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="58"/>
+      <c r="C57" s="66"/>
       <c r="D57" s="10"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -3589,7 +3598,7 @@
     <row r="59" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="58" t="s">
+      <c r="C59" s="66" t="s">
         <v>34</v>
       </c>
       <c r="D59" s="10"/>
@@ -3610,7 +3619,7 @@
     <row r="60" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="58"/>
+      <c r="C60" s="66"/>
       <c r="D60" s="10"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -3648,7 +3657,7 @@
     <row r="62" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="16"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="58" t="s">
+      <c r="C62" s="66" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="10"/>
@@ -3669,7 +3678,7 @@
     <row r="63" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="58"/>
+      <c r="C63" s="66"/>
       <c r="D63" s="10"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -3707,7 +3716,7 @@
     <row r="65" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="16"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="58" t="s">
+      <c r="C65" s="66" t="s">
         <v>36</v>
       </c>
       <c r="D65" s="10"/>
@@ -3728,7 +3737,7 @@
     <row r="66" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="16"/>
       <c r="B66" s="6"/>
-      <c r="C66" s="58"/>
+      <c r="C66" s="66"/>
       <c r="D66" s="10"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -3766,7 +3775,7 @@
     <row r="68" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="16"/>
       <c r="B68" s="6"/>
-      <c r="C68" s="59" t="s">
+      <c r="C68" s="70" t="s">
         <v>254</v>
       </c>
       <c r="D68" s="7"/>
@@ -3787,7 +3796,7 @@
     <row r="69" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="16"/>
       <c r="B69" s="6"/>
-      <c r="C69" s="59"/>
+      <c r="C69" s="70"/>
       <c r="D69" s="7"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -3847,18 +3856,18 @@
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="60"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="71"/>
       <c r="H72" s="6"/>
       <c r="I72" s="40" t="s">
         <v>58</v>
       </c>
       <c r="J72" s="40"/>
       <c r="K72" s="6"/>
-      <c r="L72" s="57" t="s">
+      <c r="L72" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="M72" s="57"/>
+      <c r="M72" s="69"/>
       <c r="N72" s="50"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
@@ -3884,12 +3893,13 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="F72:G72"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C21:C22"/>
@@ -3902,13 +3912,12 @@
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4144,7 +4153,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I44"/>
+  <dimension ref="A2:I44"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
@@ -4191,16 +4200,16 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="95" t="s">
         <v>75</v>
       </c>
       <c r="F3" s="44" t="s">
@@ -4213,10 +4222,10 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="44" t="s">
         <v>71</v>
       </c>
@@ -4231,12 +4240,12 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="82" t="s">
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="95" t="s">
         <v>69</v>
       </c>
       <c r="F5" s="44" t="s">
@@ -4249,10 +4258,10 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
       <c r="F6" s="44" t="s">
         <v>76</v>
       </c>
@@ -4267,12 +4276,12 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="82" t="s">
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="87" t="s">
         <v>134</v>
       </c>
       <c r="F7" s="44" t="s">
@@ -4285,10 +4294,10 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="83"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="96"/>
       <c r="F8" s="44" t="s">
         <v>83</v>
       </c>
@@ -4303,10 +4312,10 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="84"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="97"/>
       <c r="F9" s="44" t="s">
         <v>82</v>
       </c>
@@ -4317,16 +4326,16 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="93" t="s">
         <v>253</v>
       </c>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="77" t="s">
         <v>252</v>
       </c>
-      <c r="D10" s="87" t="s">
+      <c r="D10" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="87" t="s">
+      <c r="E10" s="76" t="s">
         <v>93</v>
       </c>
       <c r="F10" s="45" t="s">
@@ -4339,10 +4348,10 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="80"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
       <c r="F11" s="45" t="s">
         <v>103</v>
       </c>
@@ -4355,8 +4364,8 @@
       <c r="I11" s="45"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="80"/>
-      <c r="C12" s="89"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="45" t="s">
         <v>98</v>
       </c>
@@ -4377,12 +4386,12 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="80"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="91" t="s">
+      <c r="B13" s="93"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="91" t="s">
+      <c r="E13" s="80" t="s">
         <v>96</v>
       </c>
       <c r="F13" s="45" t="s">
@@ -4399,10 +4408,10 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="80"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
       <c r="F14" s="45" t="s">
         <v>115</v>
       </c>
@@ -4417,8 +4426,8 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="80"/>
-      <c r="C15" s="90"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="45" t="s">
         <v>94</v>
       </c>
@@ -4437,14 +4446,14 @@
       <c r="I15" s="45"/>
     </row>
     <row r="16" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="80"/>
-      <c r="C16" s="92" t="s">
+      <c r="B16" s="93"/>
+      <c r="C16" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="87" t="s">
+      <c r="D16" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="87" t="s">
+      <c r="E16" s="76" t="s">
         <v>124</v>
       </c>
       <c r="F16" s="45" t="s">
@@ -4457,10 +4466,10 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="80"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
       <c r="F17" s="45" t="s">
         <v>121</v>
       </c>
@@ -4473,8 +4482,8 @@
       <c r="I17" s="45"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="80"/>
-      <c r="C18" s="92"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="81"/>
       <c r="D18" s="45" t="s">
         <v>125</v>
       </c>
@@ -4493,8 +4502,8 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="80"/>
-      <c r="C19" s="92"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="45" t="s">
         <v>126</v>
       </c>
@@ -4515,12 +4524,12 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="80"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="87" t="s">
+      <c r="B20" s="93"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="E20" s="87" t="s">
+      <c r="E20" s="76" t="s">
         <v>136</v>
       </c>
       <c r="F20" s="45" t="s">
@@ -4537,10 +4546,10 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="80"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
       <c r="F21" s="45" t="s">
         <v>147</v>
       </c>
@@ -4553,8 +4562,8 @@
       <c r="I21" s="45"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="81"/>
-      <c r="C22" s="92"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="45" t="s">
         <v>128</v>
       </c>
@@ -4573,10 +4582,10 @@
       <c r="I22" s="45"/>
     </row>
     <row r="23" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="85" t="s">
+      <c r="B23" s="73" t="s">
         <v>207</v>
       </c>
-      <c r="C23" s="85" t="s">
+      <c r="C23" s="73" t="s">
         <v>169</v>
       </c>
       <c r="D23" s="43" t="s">
@@ -4597,8 +4606,8 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="86"/>
-      <c r="C24" s="85"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="43" t="s">
         <v>166</v>
       </c>
@@ -4619,8 +4628,8 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="86"/>
-      <c r="C25" s="85"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="73"/>
       <c r="D25" s="43" t="s">
         <v>167</v>
       </c>
@@ -4639,8 +4648,8 @@
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="86"/>
-      <c r="C26" s="85"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="73"/>
       <c r="D26" s="43" t="s">
         <v>168</v>
       </c>
@@ -4661,8 +4670,8 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="86"/>
-      <c r="C27" s="95" t="s">
+      <c r="B27" s="74"/>
+      <c r="C27" s="84" t="s">
         <v>177</v>
       </c>
       <c r="D27" s="43" t="s">
@@ -4683,8 +4692,8 @@
       <c r="I27" s="43"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="86"/>
-      <c r="C28" s="96"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="85"/>
       <c r="D28" s="43" t="s">
         <v>173</v>
       </c>
@@ -4703,8 +4712,8 @@
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="86"/>
-      <c r="C29" s="96"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="85"/>
       <c r="D29" s="43" t="s">
         <v>174</v>
       </c>
@@ -4723,8 +4732,8 @@
       <c r="I29" s="43"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="86"/>
-      <c r="C30" s="96"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="85"/>
       <c r="D30" s="43" t="s">
         <v>175</v>
       </c>
@@ -4743,9 +4752,9 @@
       <c r="I30" s="43"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="86"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="93" t="s">
+      <c r="B31" s="74"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="82" t="s">
         <v>176</v>
       </c>
       <c r="E31" s="43" t="s">
@@ -4761,9 +4770,9 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="86"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="94"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="83"/>
       <c r="E32" s="43" t="s">
         <v>205</v>
       </c>
@@ -4781,16 +4790,16 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="77" t="s">
+      <c r="B33" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="C33" s="77" t="s">
+      <c r="C33" s="75" t="s">
         <v>221</v>
       </c>
-      <c r="D33" s="76" t="s">
+      <c r="D33" s="90" t="s">
         <v>208</v>
       </c>
-      <c r="E33" s="76" t="s">
+      <c r="E33" s="90" t="s">
         <v>212</v>
       </c>
       <c r="F33" s="46" t="s">
@@ -4803,10 +4812,10 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
       <c r="F34" s="46" t="s">
         <v>224</v>
       </c>
@@ -4819,8 +4828,8 @@
       <c r="I34" s="46"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="76"/>
-      <c r="C35" s="76"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
       <c r="D35" s="46" t="s">
         <v>209</v>
       </c>
@@ -4839,8 +4848,8 @@
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="76"/>
-      <c r="C36" s="76"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="90"/>
       <c r="D36" s="46" t="s">
         <v>210</v>
       </c>
@@ -4861,12 +4870,12 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="90"/>
       <c r="D37" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="E37" s="78" t="s">
+      <c r="E37" s="91" t="s">
         <v>219</v>
       </c>
       <c r="F37" s="46" t="s">
@@ -4879,10 +4888,10 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="90"/>
       <c r="D38" s="46"/>
-      <c r="E38" s="79"/>
+      <c r="E38" s="92"/>
       <c r="F38" s="46" t="s">
         <v>238</v>
       </c>
@@ -4895,8 +4904,8 @@
       <c r="I38" s="46"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="76"/>
-      <c r="C39" s="76"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="90"/>
       <c r="D39" s="46" t="s">
         <v>215</v>
       </c>
@@ -4915,12 +4924,12 @@
       <c r="I39" s="46"/>
     </row>
     <row r="40" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="78" t="s">
+      <c r="B40" s="90"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="91" t="s">
         <v>216</v>
       </c>
-      <c r="E40" s="78" t="s">
+      <c r="E40" s="91" t="s">
         <v>217</v>
       </c>
       <c r="F40" s="46" t="s">
@@ -4937,10 +4946,10 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="76"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="92"/>
       <c r="F41" s="46" t="s">
         <v>248</v>
       </c>
@@ -4953,8 +4962,8 @@
       <c r="I41" s="46"/>
     </row>
     <row r="42" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="76"/>
-      <c r="C42" s="77" t="s">
+      <c r="B42" s="90"/>
+      <c r="C42" s="75" t="s">
         <v>178</v>
       </c>
       <c r="D42" s="46" t="s">
@@ -4977,8 +4986,8 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="76"/>
-      <c r="C43" s="77"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="46" t="s">
         <v>97</v>
       </c>
@@ -4997,8 +5006,8 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="76"/>
-      <c r="C44" s="77"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="75"/>
       <c r="D44" s="46" t="s">
         <v>180</v>
       </c>
@@ -5020,21 +5029,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B23:B32"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C27:C32"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="D33:D34"/>
@@ -5051,6 +5045,21 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B23:B32"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C27:C32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5243,17 +5252,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:E7"/>
+  <dimension ref="C4:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
@@ -5300,6 +5309,17 @@
         <v>300</v>
       </c>
     </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="52">
+        <v>43906</v>
+      </c>
+      <c r="D8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E8" t="s">
+        <v>302</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
